--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_summer.xlsx
@@ -426,7 +426,7 @@
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>4.090030569194725</v>
+        <v>4.036825632626817</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-4.715480642250625</v>
+        <v>-3.591129714716879</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>0.1110321191903019</v>
+        <v>-1.300150869559236</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>6.130685532900904</v>
+        <v>3.52827217675542</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>8.171687307827558</v>
+        <v>1.194245528719495</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>8.703939237318981</v>
+        <v>7.607887362976751</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>7.024938805895942</v>
+        <v>3.063639588842682</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>2.688274587589135</v>
+        <v>3.881953143326466</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>2.539548427141214</v>
+        <v>7.155859501153827</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.9946838291217786</v>
+        <v>0.354775830825127</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>4.911355197600598</v>
+        <v>2.700497159199755</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.562499360312567</v>
+        <v>5.106323395421475</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>5.487340994505363</v>
+        <v>2.62739064366051</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>4.195080504802551</v>
+        <v>3.830515520137801</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>5.494748269944894</v>
+        <v>3.858663141671226</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>4.230623896992025</v>
+        <v>4.328608026086478</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>4.590028883910469</v>
+        <v>4.721407739775696</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.933871867981643</v>
+        <v>4.429102498614346</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>4.971431636697599</v>
+        <v>4.21218881008929</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>5.36938819563848</v>
+        <v>5.850954342715009</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>4.005038151193219</v>
+        <v>4.990046926794744</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.394578533164361</v>
+        <v>4.557673974453769</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>3.0293693073427</v>
+        <v>5.208344373007368</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-9.121145393096574</v>
+        <v>1.13158575217045</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>8.901016312581778</v>
+        <v>2.143123507515932</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.9984771834683381</v>
+        <v>-1.77012120409461</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>6.640559540111668</v>
+        <v>-0.6252235182164778</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.969423516885649</v>
+        <v>1.286283684448075</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>5.449319663556662</v>
+        <v>-2.183761975384579</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.6099727569748192</v>
+        <v>-0.7189954590872905</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>3.741282892331332</v>
+        <v>0.7347074005453758</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.00883970647999055</v>
+        <v>-0.382605475081077</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>3.914957842639755</v>
+        <v>0.3097078768351302</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.2249761948293294</v>
+        <v>0.2094327661663842</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.1744462289204107</v>
+        <v>-0.6242159253788016</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>7.193183327378438</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>4.036825632626817</v>
+        <v>9.591339540850875</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-3.591129714716879</v>
+        <v>-14.96173956806345</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-1.300150869559236</v>
+        <v>-4.932343798304595</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>3.52827217675542</v>
+        <v>2.682935444832424</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>1.194245528719495</v>
+        <v>-2.225127715916653</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>7.607887362976751</v>
+        <v>9.399485634179229</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>3.063639588842682</v>
+        <v>1.811802132286955</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>3.881953143326466</v>
+        <v>5.169490031659674</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>7.155859501153827</v>
+        <v>9.213376886330305</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.354775830825127</v>
+        <v>-0.3722371047999662</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>2.700497159199755</v>
+        <v>2.684220738731935</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.106323395421475</v>
+        <v>4.098801479368341</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.62739064366051</v>
+        <v>2.548306621254004</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>3.830515520137801</v>
+        <v>3.75051862559701</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>3.858663141671226</v>
+        <v>2.714258593289975</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>4.328608026086478</v>
+        <v>2.352205130086071</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>4.721407739775696</v>
+        <v>3.873414041014778</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.429102498614346</v>
+        <v>4.083548352538369</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>4.21218881008929</v>
+        <v>3.586256146074462</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>5.850954342715009</v>
+        <v>4.861590900330692</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>4.990046926794744</v>
+        <v>3.297472770389764</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>4.557673974453769</v>
+        <v>1.787861866846807</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>5.208344373007368</v>
+        <v>4.088367525047842</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>1.13158575217045</v>
+        <v>-2.21482332957591</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.143123507515932</v>
+        <v>-0.6322362079330346</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.77012120409461</v>
+        <v>6.09521976277807</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.6252235182164778</v>
+        <v>1.839905110456375</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.286283684448075</v>
+        <v>3.616930127707629</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-2.183761975384579</v>
+        <v>1.391416039405691</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.7189954590872905</v>
+        <v>0.7171092762090492</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.7347074005453758</v>
+        <v>2.755142438739822</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.382605475081077</v>
+        <v>-0.1521036778360019</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.3097078768351302</v>
+        <v>1.645968204809645</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.2094327661663842</v>
+        <v>-2.051528019634985</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.6242159253788016</v>
+        <v>-0.3224191428759626</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>6.09521976277807</v>
+        <v>5.581748139214504</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>1.839905110456375</v>
+        <v>1.077755602068331</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>3.616930127707629</v>
+        <v>3.12692044325571</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.391416039405691</v>
+        <v>0.3931682903217437</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.7171092762090492</v>
+        <v>1.491421088056821</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>2.755142438739822</v>
+        <v>4.914994275397877</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.1521036778360019</v>
+        <v>-0.6748604236165856</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.645968204809645</v>
+        <v>1.793234865396309</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-2.051528019634985</v>
+        <v>-2.112630615019295</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.3224191428759626</v>
+        <v>-0.6714033493142146</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>7.193183327378438</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>9.591339540850875</v>
+        <v>9.591339540850829</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -463,7 +460,7 @@
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-2.225127715916653</v>
+        <v>-2.225127715916664</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +471,7 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>9.399485634179229</v>
+        <v>9.399485634179205</v>
       </c>
       <c r="D5">
         <v>2012</v>
@@ -491,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>5.169490031659674</v>
+        <v>5.169490031659651</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>9.213376886330305</v>
+        <v>9.213376886330327</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.3722371047999662</v>
+        <v>-0.3722371047999995</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>2.684220738731935</v>
+        <v>2.684220738731979</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,7 +522,7 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>4.098801479368341</v>
+        <v>4.098801479368319</v>
       </c>
       <c r="D8">
         <v>2015</v>
@@ -548,7 +545,7 @@
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>2.714258593289975</v>
+        <v>2.714258593289998</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.352205130086071</v>
+        <v>2.352205130086094</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -576,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.083548352538369</v>
+        <v>4.083548352538391</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>3.586256146074462</v>
+        <v>3.58625614607444</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,7 +590,7 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>4.861590900330692</v>
+        <v>4.861590900330715</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -633,7 +630,7 @@
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.6322362079330346</v>
+        <v>-0.6322362079330235</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,7 +647,7 @@
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>1.077755602068331</v>
+        <v>1.077755602068309</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -701,7 +698,7 @@
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.793234865396309</v>
+        <v>1.793234865396331</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +715,7 @@
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.6714033493142146</v>
+        <v>-0.6714033493142035</v>
       </c>
     </row>
   </sheetData>
